--- a/results/logistic/dilemma/confidence/0.1/percents/scores-10.xlsx
+++ b/results/logistic/dilemma/confidence/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="87">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -49,31 +49,73 @@
     <t>shit</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>serious</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>any</t>
   </si>
   <si>
     <t>truth</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>drugs</t>
-  </si>
-  <si>
-    <t>news</t>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>know</t>
   </si>
   <si>
     <t>this</t>
@@ -82,90 +124,33 @@
     <t>.</t>
   </si>
   <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>generation</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>not</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>we</t>
   </si>
   <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
+    <t>are</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
   <si>
     <t>’</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
     <t>it</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -178,70 +163,85 @@
     <t>own</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>t</t>
+    <t>that</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
   <si>
     <t>media</t>
@@ -250,10 +250,13 @@
     <t>of</t>
   </si>
   <si>
-    <t>'</t>
-  </si>
-  <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS44"/>
+  <dimension ref="A1:BS39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BC1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BL1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -860,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.04399755807865141</v>
+        <v>0.04809407404518365</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -881,16 +884,16 @@
         <v>127</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>0.05425468236767837</v>
+        <v>0.07702342739671689</v>
       </c>
       <c r="L3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -902,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.02994320290756353</v>
+        <v>0.03397842854547783</v>
       </c>
       <c r="U3">
         <v>11</v>
@@ -929,16 +932,16 @@
         <v>127</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AC3">
-        <v>0.03964698486063539</v>
+        <v>0.04465638161340944</v>
       </c>
       <c r="AD3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -950,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.02792452081431413</v>
+        <v>0.03178885719531536</v>
       </c>
       <c r="AM3">
         <v>11</v>
@@ -977,16 +980,16 @@
         <v>127</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AU3">
-        <v>0.03745284754585942</v>
+        <v>0.03944946238739932</v>
       </c>
       <c r="AV3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -998,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.02711627941799786</v>
+        <v>0.03089981889461436</v>
       </c>
       <c r="BE3">
         <v>11</v>
@@ -1025,16 +1028,16 @@
         <v>127</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="BM3">
-        <v>0.0365672732489184</v>
+        <v>0.03732044268628344</v>
       </c>
       <c r="BN3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BO3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1054,13 +1057,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03615934760342288</v>
+        <v>0.03770872443164233</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1072,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>0.04111643730805226</v>
+        <v>0.04524692830029087</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1102,13 +1105,13 @@
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.02840707763023628</v>
+        <v>0.03166586144457882</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1120,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AC4">
-        <v>0.03656728542466696</v>
+        <v>0.03658392737873638</v>
       </c>
       <c r="AD4">
         <v>4</v>
@@ -1150,13 +1153,13 @@
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.02729358872331723</v>
+        <v>0.03072851290676613</v>
       </c>
       <c r="AM4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1168,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AU4">
-        <v>0.03588398376859785</v>
+        <v>0.03519030170293718</v>
       </c>
       <c r="AV4">
         <v>4</v>
@@ -1198,13 +1201,13 @@
         <v>10</v>
       </c>
       <c r="BD4">
-        <v>0.02684776922953934</v>
+        <v>0.03034791843508577</v>
       </c>
       <c r="BE4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1216,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="BM4">
-        <v>0.03560819684332339</v>
+        <v>0.03462047213751276</v>
       </c>
       <c r="BN4">
         <v>4</v>
@@ -1248,13 +1251,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.03000180976064239</v>
+        <v>0.03511435395850073</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1266,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.0375818591392913</v>
+        <v>0.03939583923065049</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1290,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1092</v>
+        <v>57</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T5">
-        <v>0.0269747777470656</v>
+        <v>0.0306639780429971</v>
       </c>
       <c r="U5">
         <v>4</v>
@@ -1317,16 +1320,16 @@
         <v>17</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AC5">
-        <v>0.0349266082298569</v>
+        <v>0.03462322616647273</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1338,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL5">
-        <v>0.02653999328010757</v>
+        <v>0.03022669418590096</v>
       </c>
       <c r="AM5">
         <v>4</v>
@@ -1365,16 +1368,16 @@
         <v>17</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AU5">
-        <v>0.03495335187733717</v>
+        <v>0.03385545110017397</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -1386,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD5">
-        <v>0.02636591396081014</v>
+        <v>0.03004914249423863</v>
       </c>
       <c r="BE5">
         <v>4</v>
@@ -1413,16 +1416,16 @@
         <v>17</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="BM5">
-        <v>0.03504346492554872</v>
+        <v>0.03354152108297487</v>
       </c>
       <c r="BN5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -1434,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1442,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02970477782250845</v>
+        <v>0.03348304302074034</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1460,157 +1463,157 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>0.03914098958870536</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>72</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6">
+        <v>0.03064761596633137</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>99</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC6">
+        <v>0.03434069404614808</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6">
+        <v>3</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>72</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL6">
+        <v>0.02995475062506588</v>
+      </c>
+      <c r="AM6">
+        <v>5</v>
+      </c>
+      <c r="AN6">
+        <v>5</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>99</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU6">
+        <v>0.03356846567169562</v>
+      </c>
+      <c r="AV6">
+        <v>3</v>
+      </c>
+      <c r="AW6">
+        <v>3</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>72</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD6">
+        <v>0.02973472119162417</v>
+      </c>
+      <c r="BE6">
+        <v>3</v>
+      </c>
+      <c r="BF6">
+        <v>3</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>27</v>
+      </c>
+      <c r="BL6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K6">
-        <v>0.03546983818562922</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>58</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6">
-        <v>0.02667633356640557</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
-      </c>
-      <c r="V6">
-        <v>4</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>62</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC6">
-        <v>0.03491775980084343</v>
-      </c>
-      <c r="AD6">
-        <v>2</v>
-      </c>
-      <c r="AE6">
-        <v>2</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>59</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL6">
-        <v>0.02624134625352086</v>
-      </c>
-      <c r="AM6">
-        <v>4</v>
-      </c>
-      <c r="AN6">
-        <v>4</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>62</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU6">
-        <v>0.03491773062701632</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>4</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD6">
-        <v>0.0260671857186246</v>
-      </c>
-      <c r="BE6">
-        <v>4</v>
-      </c>
-      <c r="BF6">
-        <v>4</v>
-      </c>
-      <c r="BG6">
-        <v>1</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>62</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="BM6">
-        <v>0.03500775184027428</v>
+        <v>0.03340526314092943</v>
       </c>
       <c r="BN6">
         <v>1</v>
@@ -1628,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1636,13 +1639,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.02759505905720026</v>
+        <v>0.0331734881700821</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1654,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.03546136846488089</v>
+        <v>0.03410541937328938</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1678,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.02614142213351786</v>
+        <v>0.03033142561463214</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1702,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AC7">
-        <v>0.03489121451380299</v>
+        <v>0.03328409561892333</v>
       </c>
       <c r="AD7">
         <v>2</v>
@@ -1726,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.02593263056733057</v>
+        <v>0.02989057445080031</v>
       </c>
       <c r="AM7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1750,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AU7">
-        <v>0.03491773062701632</v>
+        <v>0.03319464789399601</v>
       </c>
       <c r="AV7">
         <v>1</v>
@@ -1774,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD7">
+        <v>0.02971157431475725</v>
+      </c>
+      <c r="BE7">
         <v>4</v>
       </c>
-      <c r="BC7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD7">
-        <v>0.02586986577326729</v>
-      </c>
-      <c r="BE7">
-        <v>2</v>
-      </c>
       <c r="BF7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1798,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="BM7">
-        <v>0.03500775184027428</v>
+        <v>0.033366755632986</v>
       </c>
       <c r="BN7">
         <v>1</v>
@@ -1822,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1830,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02734423208722049</v>
+        <v>0.03121886438830087</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1848,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.03543595930263592</v>
+        <v>0.03391852963586295</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -1872,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.02588940260318272</v>
+        <v>0.03000045515500559</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1896,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AC8">
-        <v>0.03479388179465472</v>
+        <v>0.03307690539735192</v>
       </c>
       <c r="AD8">
         <v>2</v>
@@ -1920,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL8">
-        <v>0.02586283250240966</v>
+        <v>0.02981145962164139</v>
       </c>
       <c r="AM8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -1944,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AU8">
-        <v>0.03491773062701632</v>
+        <v>0.0331563831701989</v>
       </c>
       <c r="AV8">
         <v>1</v>
@@ -1968,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD8">
-        <v>0.02584903444907173</v>
+        <v>0.02967342440769115</v>
       </c>
       <c r="BE8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -1992,13 +1995,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="BM8">
-        <v>0.03500775184027428</v>
+        <v>0.03332824812504256</v>
       </c>
       <c r="BN8">
         <v>1</v>
@@ -2024,13 +2027,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02572296584239923</v>
+        <v>0.03097122050777428</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2042,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.03534279237440435</v>
+        <v>0.03386755970747393</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -2066,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.02584526604515816</v>
+        <v>0.02973441321231363</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -2090,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AC9">
-        <v>0.03473008387790209</v>
+        <v>0.03302039897328699</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2114,19 +2117,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL9">
-        <v>0.02575001029236578</v>
+        <v>0.02954256383356087</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -2138,61 +2141,61 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AT9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU9">
+        <v>0.03315196844006314</v>
+      </c>
+      <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>48</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD9">
+        <v>0.02946466664803905</v>
+      </c>
+      <c r="BE9">
+        <v>3</v>
+      </c>
+      <c r="BF9">
+        <v>3</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
         <v>63</v>
       </c>
-      <c r="AU9">
-        <v>0.03490882531443611</v>
-      </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>5</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD9">
-        <v>0.02581103623288003</v>
-      </c>
-      <c r="BE9">
-        <v>1</v>
-      </c>
-      <c r="BF9">
-        <v>1</v>
-      </c>
-      <c r="BG9">
-        <v>1</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>5</v>
-      </c>
       <c r="BL9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="BM9">
-        <v>0.03499882356895567</v>
+        <v>0.03332824812504256</v>
       </c>
       <c r="BN9">
         <v>1</v>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2218,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02561075377688197</v>
+        <v>0.02868640488529093</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2236,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.03324365393717459</v>
+        <v>0.03300107092486052</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2260,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.02573252046579771</v>
+        <v>0.02904872016243112</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2284,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC10">
-        <v>0.03469469016184817</v>
+        <v>0.03267954858421801</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -2308,61 +2311,61 @@
         <v>0</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL10">
+        <v>0.02928723291843617</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>6</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU10">
+        <v>0.03311811844640179</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA10">
         <v>4</v>
       </c>
-      <c r="AK10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL10">
-        <v>0.02571339523039895</v>
-      </c>
-      <c r="AM10">
-        <v>1</v>
-      </c>
-      <c r="AN10">
-        <v>1</v>
-      </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>5</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU10">
-        <v>0.03488210937669547</v>
-      </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>8</v>
-      </c>
       <c r="BC10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BD10">
-        <v>0.02580439782749814</v>
+        <v>0.02941344070547827</v>
       </c>
       <c r="BE10">
         <v>1</v>
@@ -2383,10 +2386,10 @@
         <v>6</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="BM10">
-        <v>0.03497203875499983</v>
+        <v>0.03332824812504256</v>
       </c>
       <c r="BN10">
         <v>1</v>
@@ -2404,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2412,7 +2415,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02540613177505637</v>
+        <v>0.02849379297821469</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2430,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.03320977505418129</v>
+        <v>0.02947760858498557</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2454,109 +2457,109 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11">
+        <v>0.02897640159153287</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11">
+        <v>0.03264187763484139</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL11">
+        <v>0.02927976359098949</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>7</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11">
+        <v>0.03311811844640179</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA11">
         <v>4</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11">
-        <v>0.02552692558578747</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>76</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC11">
-        <v>0.03469469016184817</v>
-      </c>
-      <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>4</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL11">
-        <v>0.02570675862980814</v>
-      </c>
-      <c r="AM11">
-        <v>1</v>
-      </c>
-      <c r="AN11">
-        <v>1</v>
-      </c>
-      <c r="AO11">
-        <v>1</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>6</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU11">
-        <v>0.03486429875153504</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11">
-        <v>1</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
-      <c r="AZ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>10</v>
-      </c>
       <c r="BC11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BD11">
-        <v>0.02579775942211623</v>
+        <v>0.02940593919037868</v>
       </c>
       <c r="BE11">
         <v>1</v>
@@ -2577,10 +2580,10 @@
         <v>7</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BM11">
-        <v>0.03495418221236261</v>
+        <v>0.03330899437107085</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2598,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2606,7 +2609,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0252213119024397</v>
+        <v>0.02832869705786362</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2624,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.03320977505418129</v>
+        <v>0.02944362863272622</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2648,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T12">
-        <v>0.0254695248419558</v>
+        <v>0.0289690115375692</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -2672,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AC12">
-        <v>0.03469469016184817</v>
+        <v>0.03260420668546477</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2699,10 +2702,10 @@
         <v>4</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL12">
-        <v>0.02570012202921732</v>
+        <v>0.02924988628120276</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2720,19 +2723,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AU12">
-        <v>0.03484501281648738</v>
+        <v>0.03311811844640179</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -2744,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BD12">
-        <v>0.02579112101673433</v>
+        <v>0.02937593312998034</v>
       </c>
       <c r="BE12">
         <v>1</v>
@@ -2768,19 +2771,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="BM12">
-        <v>0.03492739739840678</v>
+        <v>0.03325271477339912</v>
       </c>
       <c r="BN12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP12">
         <v>0</v>
@@ -2792,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2800,13 +2803,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02506289486876826</v>
+        <v>0.026972545987355</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2818,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.03320977505418129</v>
+        <v>0.02940964868046687</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2845,10 +2848,10 @@
         <v>4</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T13">
-        <v>0.02546289274905224</v>
+        <v>0.02893945132171454</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2866,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AC13">
-        <v>0.0346858417328347</v>
+        <v>0.03260420668546477</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2890,103 +2893,103 @@
         <v>0</v>
       </c>
       <c r="AI13">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL13">
+        <v>0.02924241695375608</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>12</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU13">
+        <v>0.03309898608450323</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA13">
         <v>5</v>
       </c>
-      <c r="AK13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL13">
-        <v>0.0256934854286265</v>
-      </c>
-      <c r="AM13">
-        <v>1</v>
-      </c>
-      <c r="AN13">
-        <v>1</v>
-      </c>
-      <c r="AO13">
-        <v>1</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR13">
+      <c r="BC13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD13">
+        <v>0.02936843161488075</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <v>1</v>
+      </c>
+      <c r="BG13">
+        <v>1</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>12</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM13">
+        <v>0.0332512331091557</v>
+      </c>
+      <c r="BN13">
+        <v>1</v>
+      </c>
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
+      </c>
+      <c r="BR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS13">
         <v>8</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU13">
-        <v>0.0348375828137944</v>
-      </c>
-      <c r="AV13">
-        <v>1</v>
-      </c>
-      <c r="AW13">
-        <v>1</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>1</v>
-      </c>
-      <c r="AZ13" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>13</v>
-      </c>
-      <c r="BC13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD13">
-        <v>0.02577120580058863</v>
-      </c>
-      <c r="BE13">
-        <v>1</v>
-      </c>
-      <c r="BF13">
-        <v>1</v>
-      </c>
-      <c r="BG13">
-        <v>1</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>11</v>
-      </c>
-      <c r="BL13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM13">
-        <v>0.03491846912708817</v>
-      </c>
-      <c r="BN13">
-        <v>1</v>
-      </c>
-      <c r="BO13">
-        <v>1</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>1</v>
-      </c>
-      <c r="BR13" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2994,13 +2997,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02506038651845731</v>
+        <v>0.02696566699067371</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3012,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>447</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.03320130533343296</v>
+        <v>0.02940964868046687</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3036,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T14">
-        <v>0.02545626065614869</v>
+        <v>0.02893206126775088</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -3060,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AC14">
-        <v>0.03465929644579426</v>
+        <v>0.03260420668546477</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3084,85 +3087,85 @@
         <v>0</v>
       </c>
       <c r="AI14">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL14">
+        <v>0.02922747829886272</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>14</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU14">
+        <v>0.03304158899880756</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA14">
         <v>8</v>
       </c>
-      <c r="AK14" s="1" t="s">
+      <c r="BC14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD14">
+        <v>0.02935342858468158</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>1</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
         <v>14</v>
       </c>
-      <c r="AL14">
-        <v>0.02568043974487957</v>
-      </c>
-      <c r="AM14">
-        <v>3</v>
-      </c>
-      <c r="AN14">
-        <v>3</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>101</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU14">
-        <v>0.03483610750390716</v>
-      </c>
-      <c r="AV14">
-        <v>2</v>
-      </c>
-      <c r="AW14">
-        <v>2</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>59</v>
-      </c>
-      <c r="BC14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD14">
-        <v>0.02576456739520673</v>
-      </c>
-      <c r="BE14">
-        <v>1</v>
-      </c>
-      <c r="BF14">
-        <v>1</v>
-      </c>
-      <c r="BG14">
-        <v>1</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>12</v>
-      </c>
       <c r="BL14" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="BM14">
-        <v>0.03490954085576956</v>
+        <v>0.03321272560121227</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3180,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3188,193 +3191,193 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02440255922185861</v>
+        <v>0.02693815100394853</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15">
+        <v>0.02940964868046687</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15">
+        <v>0.02891728115982355</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>14</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC15">
+        <v>0.03258537121077646</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL15">
+        <v>0.02922000897141604</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>15</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15">
+        <v>0.03300332427501045</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA15">
         <v>10</v>
       </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>0.91</v>
-      </c>
-      <c r="F15">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2777</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15">
-        <v>0.03317589617118799</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15">
-        <v>0.02544962856324513</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>8</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC15">
-        <v>0.0346415995877673</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>1</v>
-      </c>
-      <c r="AH15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>10</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL15">
-        <v>0.02567357562685406</v>
-      </c>
-      <c r="AM15">
-        <v>1</v>
-      </c>
-      <c r="AN15">
-        <v>1</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>11</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU15">
-        <v>0.03482867750121418</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>1</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA15">
+      <c r="BC15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD15">
+        <v>0.02934592706958199</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <v>1</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>15</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM15">
+        <v>0.03313571058532539</v>
+      </c>
+      <c r="BN15">
+        <v>1</v>
+      </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>1</v>
+      </c>
+      <c r="BR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS15">
         <v>14</v>
-      </c>
-      <c r="BC15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD15">
-        <v>0.02575701288177498</v>
-      </c>
-      <c r="BE15">
-        <v>2</v>
-      </c>
-      <c r="BF15">
-        <v>2</v>
-      </c>
-      <c r="BG15">
-        <v>1</v>
-      </c>
-      <c r="BH15">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>45</v>
-      </c>
-      <c r="BL15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM15">
-        <v>0.03481208014616555</v>
-      </c>
-      <c r="BN15">
-        <v>2</v>
-      </c>
-      <c r="BO15">
-        <v>2</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>1</v>
-      </c>
-      <c r="BR15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS15">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3382,7 +3385,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02377166411076249</v>
+        <v>0.02693127200726724</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3400,37 +3403,37 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>0.0293926587043372</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>5</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16">
-        <v>0.03315895672969134</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
-      </c>
       <c r="S16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T16">
-        <v>0.02542973228453446</v>
+        <v>0.02890989110585988</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3448,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AC16">
-        <v>0.03461505430072687</v>
+        <v>0.03252886478671153</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3472,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL16">
-        <v>0.02566693902626324</v>
+        <v>0.02921253964396936</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3496,19 +3499,19 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="AU16">
-        <v>0.03481977218863398</v>
+        <v>0.03294151245917901</v>
       </c>
       <c r="AV16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -3520,55 +3523,55 @@
         <v>0</v>
       </c>
       <c r="BA16">
+        <v>59</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD16">
+        <v>0.02933842555448241</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>16</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM16">
+        <v>0.03311645683135368</v>
+      </c>
+      <c r="BN16">
+        <v>1</v>
+      </c>
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS16">
         <v>15</v>
-      </c>
-      <c r="BC16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD16">
-        <v>0.02575129058444293</v>
-      </c>
-      <c r="BE16">
-        <v>1</v>
-      </c>
-      <c r="BF16">
-        <v>1</v>
-      </c>
-      <c r="BG16">
-        <v>1</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>14</v>
-      </c>
-      <c r="BL16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM16">
-        <v>0.03480315187484695</v>
-      </c>
-      <c r="BN16">
-        <v>2</v>
-      </c>
-      <c r="BO16">
-        <v>2</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
-        <v>1</v>
-      </c>
-      <c r="BR16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS16">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3576,7 +3579,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.02376506340102618</v>
+        <v>0.02691751401390465</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3594,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.03313354756744637</v>
+        <v>0.02934168877594817</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3618,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T17">
-        <v>0.0254231001916309</v>
+        <v>0.02890250105189621</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3642,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AC17">
-        <v>0.03460620587171339</v>
+        <v>0.03249119383733491</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3666,61 +3669,61 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>10</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL17">
+        <v>0.02916025435184259</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>23</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU17">
+        <v>0.03292679482741622</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17">
         <v>14</v>
       </c>
-      <c r="AK17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL17">
-        <v>0.02565366582508161</v>
-      </c>
-      <c r="AM17">
-        <v>1</v>
-      </c>
-      <c r="AN17">
-        <v>1</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>14</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU17">
-        <v>0.03480939156616653</v>
-      </c>
-      <c r="AV17">
-        <v>2</v>
-      </c>
-      <c r="AW17">
-        <v>2</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>62</v>
-      </c>
       <c r="BC17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BD17">
-        <v>0.02573801377367913</v>
+        <v>0.0292859149487853</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3738,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="BM17">
-        <v>0.03477636706089111</v>
+        <v>0.03309794390950367</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3762,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3770,7 +3773,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.02375846269128987</v>
+        <v>0.02691063501722336</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3788,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.03312507784669805</v>
+        <v>0.02930770882368882</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3812,109 +3815,109 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18">
+        <v>0.02885077067415055</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>23</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC18">
+        <v>0.03241585193858167</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18">
         <v>14</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18">
-        <v>0.02540983600582379</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>14</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC18">
-        <v>0.03459735744269991</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18">
+      <c r="AK18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL18">
+        <v>0.02913037704205587</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>27</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU18">
+        <v>0.03290766246551766</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA18">
         <v>15</v>
       </c>
-      <c r="AK18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL18">
-        <v>0.02564039262389998</v>
-      </c>
-      <c r="AM18">
-        <v>1</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>16</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU18">
-        <v>0.03471143312778418</v>
-      </c>
-      <c r="AV18">
-        <v>2</v>
-      </c>
-      <c r="AW18">
-        <v>2</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>73</v>
-      </c>
       <c r="BC18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BD18">
-        <v>0.02569154493600582</v>
+        <v>0.02925590888838696</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3932,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="BM18">
-        <v>0.03467815607638638</v>
+        <v>0.03288615261581478</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -3956,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3964,7 +3967,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.02375186198155356</v>
+        <v>0.02690375602054206</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3982,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.03311660812594972</v>
+        <v>0.02923974891917012</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4006,91 +4009,91 @@
         <v>0</v>
       </c>
       <c r="Q19">
+        <v>14</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>0.02884179865144849</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>104</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC19">
+        <v>0.03239701646389336</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19">
         <v>15</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19">
-        <v>0.02539657182001668</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>16</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC19">
-        <v>0.03436729828834948</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>41</v>
-      </c>
       <c r="AK19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL19">
+        <v>0.02910796905971582</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19">
         <v>30</v>
       </c>
-      <c r="AL19">
-        <v>0.02559393641976427</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>23</v>
-      </c>
       <c r="AT19" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AU19">
-        <v>0.03458823406154843</v>
+        <v>0.03288411537348334</v>
       </c>
       <c r="AV19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -4102,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BD19">
-        <v>0.02567826812524202</v>
+        <v>0.0292334043430882</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4126,13 +4129,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="BM19">
-        <v>0.03467740580148566</v>
+        <v>0.03286615802972135</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4150,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4158,7 +4161,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02373205985234463</v>
+        <v>0.026855603043773</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4176,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.03289639538649327</v>
+        <v>0.02922275894304045</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4200,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T20">
-        <v>0.02535014716969178</v>
+        <v>0.02882121045829589</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4224,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC20">
-        <v>0.03429651085624166</v>
+        <v>0.03215215529294533</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4248,19 +4251,19 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AL20">
-        <v>0.02558066321858263</v>
+        <v>0.02910492128696126</v>
       </c>
       <c r="AM20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO20">
         <v>1</v>
@@ -4272,13 +4275,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AU20">
-        <v>0.03451699156090672</v>
+        <v>0.03265894176083643</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4296,19 +4299,19 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD20">
-        <v>0.0255967750445595</v>
+        <v>0.02912774080012583</v>
       </c>
       <c r="BE20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG20">
         <v>1</v>
@@ -4320,19 +4323,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="BM20">
-        <v>0.03460597963093678</v>
+        <v>0.03282839135389963</v>
       </c>
       <c r="BN20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP20">
         <v>0</v>
@@ -4344,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4352,7 +4355,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02372545914260832</v>
+        <v>0.02682808705704782</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4370,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.03282863762050667</v>
+        <v>0.02900188925335468</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4394,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="T21">
-        <v>0.0253412269844879</v>
+        <v>0.02879904029640489</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -4418,19 +4421,19 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="AC21">
-        <v>0.0342345718531473</v>
+        <v>0.03205978976418317</v>
       </c>
       <c r="AD21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -4442,19 +4445,19 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AL21">
-        <v>0.02554427567405049</v>
+        <v>0.02898845982056892</v>
       </c>
       <c r="AM21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO21">
         <v>1</v>
@@ -4466,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AU21">
-        <v>0.03445465437284523</v>
+        <v>0.03256327995134364</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4490,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BD21">
-        <v>0.02558533044989541</v>
+        <v>0.02911338010149482</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4514,13 +4517,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="BM21">
-        <v>0.03454348173170649</v>
+        <v>0.03276988925986277</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4538,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4546,7 +4549,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0237122577231357</v>
+        <v>0.02680745006700394</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4564,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>0.03276934957526841</v>
+        <v>0.02891693937270631</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4588,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T22">
-        <v>0.02533688298388467</v>
+        <v>0.02868079943298624</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4612,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC22">
-        <v>0.03411069384695861</v>
+        <v>0.03205797791950378</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4636,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL22">
-        <v>0.02548775081031121</v>
+        <v>0.02893617452844216</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4660,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AU22">
-        <v>0.03432997999672224</v>
+        <v>0.0321806327133725</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4684,19 +4687,19 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="BD22">
-        <v>0.02555122231493605</v>
+        <v>0.02906086949579771</v>
       </c>
       <c r="BE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG22">
         <v>1</v>
@@ -4708,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BM22">
-        <v>0.03441848593324594</v>
+        <v>0.03238481418042842</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4732,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4740,7 +4743,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.02369905630366308</v>
+        <v>0.02669738612010323</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4758,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.03265077348479185</v>
+        <v>0.02857713985011281</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4782,133 +4785,133 @@
         <v>0</v>
       </c>
       <c r="Q23">
+        <v>53</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23">
+        <v>0.02866443735632051</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>128</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC23">
+        <v>0.03168126842573758</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>53</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL23">
+        <v>0.02889578011845419</v>
+      </c>
+      <c r="AM23">
+        <v>2</v>
+      </c>
+      <c r="AN23">
+        <v>2</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>104</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU23">
+        <v>0.03212323562767683</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>56</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD23">
+        <v>0.02893334373910474</v>
+      </c>
+      <c r="BE23">
+        <v>1</v>
+      </c>
+      <c r="BF23">
+        <v>1</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
         <v>70</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23">
-        <v>0.02524403368323489</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>39</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC23">
-        <v>0.03372136297036557</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>114</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL23">
-        <v>0.02539483840203979</v>
-      </c>
-      <c r="AM23">
-        <v>1</v>
-      </c>
-      <c r="AN23">
-        <v>1</v>
-      </c>
-      <c r="AO23">
-        <v>1</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>53</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU23">
-        <v>0.03393814624319286</v>
-      </c>
-      <c r="AV23">
-        <v>1</v>
-      </c>
-      <c r="AW23">
-        <v>1</v>
-      </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>114</v>
-      </c>
-      <c r="BC23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD23">
-        <v>0.0254923927745488</v>
-      </c>
-      <c r="BE23">
-        <v>1</v>
-      </c>
-      <c r="BF23">
-        <v>1</v>
-      </c>
-      <c r="BG23">
-        <v>1</v>
-      </c>
-      <c r="BH23">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ23">
-        <v>53</v>
-      </c>
       <c r="BL23" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BM23">
-        <v>0.03402564199522706</v>
+        <v>0.03232705291851327</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4926,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>114</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4934,7 +4937,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02365285133550891</v>
+        <v>0.02664923314333417</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4952,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.03227810577186557</v>
+        <v>0.02852616992172379</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4976,19 +4979,19 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="T24">
-        <v>0.02518205675480256</v>
+        <v>0.02862906905524058</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -5000,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC24">
-        <v>0.03168622429726557</v>
+        <v>0.03162476200167265</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5024,19 +5027,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>344</v>
+        <v>56</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="AL24">
-        <v>0.02535845085750765</v>
+        <v>0.02880919596184858</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <v>1</v>
@@ -5048,19 +5051,19 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="AU24">
-        <v>0.0318899243497438</v>
+        <v>0.03190836491665695</v>
       </c>
       <c r="AV24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -5072,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BD24">
-        <v>0.02543264712611169</v>
+        <v>0.02891834070890557</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5096,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="BM24">
-        <v>0.03197213959194649</v>
+        <v>0.03184644990134205</v>
       </c>
       <c r="BN24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP24">
         <v>0</v>
@@ -5120,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>344</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5128,7 +5131,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02363964991603629</v>
+        <v>0.02653229019975217</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5146,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.03033006999975088</v>
+        <v>0.02679319235649697</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5170,13 +5173,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T25">
-        <v>0.0251511843825851</v>
+        <v>0.02850343813785827</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5194,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AC25">
-        <v>0.03147386200094209</v>
+        <v>0.02970354358346502</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5218,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL25">
-        <v>0.02533510899672245</v>
+        <v>0.02879425730695522</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5242,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AU25">
-        <v>0.03167619684781868</v>
+        <v>0.03017173471402404</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5266,19 +5269,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="BD25">
-        <v>0.02537953988305648</v>
+        <v>0.02891769837733741</v>
       </c>
       <c r="BE25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG25">
         <v>1</v>
@@ -5290,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BM25">
-        <v>0.03175786108029982</v>
+        <v>0.03036317001339811</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5314,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>368</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5322,7 +5325,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02354723997972796</v>
+        <v>0.02651853220638958</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5340,13 +5343,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.03012679670179109</v>
+        <v>0.02363305679637748</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5364,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T26">
-        <v>0.0250914955464531</v>
+        <v>0.02848865802993094</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5388,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AC26">
-        <v>0.02886357544196601</v>
+        <v>0.02620014529143934</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5412,19 +5415,19 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>663</v>
+        <v>344</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AL26">
-        <v>0.02528201619199592</v>
+        <v>0.02871651625973384</v>
       </c>
       <c r="AM26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO26">
         <v>1</v>
@@ -5436,13 +5439,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
+        <v>128</v>
+      </c>
+      <c r="AT26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AT26" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AU26">
-        <v>0.02904912963665576</v>
+        <v>0.02661311540089248</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5460,19 +5463,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>663</v>
+        <v>344</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="BD26">
-        <v>0.02536626307229268</v>
+        <v>0.02873766201494734</v>
       </c>
       <c r="BE26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG26">
         <v>1</v>
@@ -5484,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BM26">
-        <v>0.02912402104130954</v>
+        <v>0.0267819717746587</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5508,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>663</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5516,13 +5519,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.0234721238223176</v>
+        <v>0.02622961434577522</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5534,37 +5537,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>369</v>
+        <v>114</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>0.02783861979138863</v>
+        <v>0.02322529736926529</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>959</v>
+        <v>368</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T27">
-        <v>0.02503843880322465</v>
+        <v>0.02817827576345698</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5582,19 +5585,19 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="AC27">
-        <v>0.02861626556886662</v>
+        <v>0.0257480938989199</v>
       </c>
       <c r="AD27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5606,13 +5609,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>1092</v>
+        <v>368</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AL27">
-        <v>0.02526874299081429</v>
+        <v>0.02848054555419462</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5630,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AU27">
-        <v>0.02862167463280552</v>
+        <v>0.02615393871532712</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5654,19 +5657,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>711</v>
+        <v>368</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="BD27">
-        <v>0.02536534696424283</v>
+        <v>0.02860327707472294</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>1</v>
@@ -5678,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="BM27">
-        <v>0.0286954640180162</v>
+        <v>0.02631988167933749</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5702,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>711</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5710,13 +5713,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02345483004341962</v>
+        <v>0.02612741811984945</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5728,19 +5731,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>53</v>
+        <v>448</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K28">
-        <v>0.02762822908103529</v>
+        <v>0.02250126567672156</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -5752,13 +5755,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>663</v>
+        <v>731</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T28">
-        <v>0.02502517461741754</v>
+        <v>0.02725451901799878</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5776,13 +5779,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AC28">
-        <v>0.02843885084931906</v>
+        <v>0.02233887298033577</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5800,19 +5803,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>711</v>
+        <v>549</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AL28">
-        <v>0.02519917244332806</v>
+        <v>0.0275468796233595</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>1</v>
@@ -5824,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AU28">
-        <v>0.02843466306862104</v>
+        <v>0.02269098121168834</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5848,19 +5851,19 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>732</v>
+        <v>549</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="BD28">
-        <v>0.02520602523507721</v>
+        <v>0.02766558768727464</v>
       </c>
       <c r="BE28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG28">
         <v>1</v>
@@ -5872,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BM28">
-        <v>0.02850797032032537</v>
+        <v>0.02283495221045666</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5896,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>732</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5904,13 +5907,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02339542365579284</v>
+        <v>0.02546019751513808</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5922,19 +5925,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>2779</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K29">
-        <v>0.0272216824851157</v>
+        <v>0.02176024400804817</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -5946,13 +5949,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>711</v>
+        <v>1095</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T29">
-        <v>0.02483947601611796</v>
+        <v>0.02706237761494348</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5970,37 +5973,37 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AC29">
-        <v>0.02825303384003601</v>
+        <v>0.0212652509231021</v>
       </c>
       <c r="AD29">
         <v>1</v>
       </c>
       <c r="AE29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29">
-        <v>732</v>
+        <v>606</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL29">
-        <v>0.02508291817427144</v>
+        <v>0.02735267710974579</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6018,37 +6021,37 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AU29">
-        <v>0.02726959588375712</v>
+        <v>0.02160043658347061</v>
       </c>
       <c r="AV29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AY29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29">
-        <v>1092</v>
+        <v>606</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BD29">
-        <v>0.02518038772159946</v>
+        <v>0.02747054829468539</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6066,31 +6069,31 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="BM29">
-        <v>0.02721337097912675</v>
+        <v>0.02173748823406878</v>
       </c>
       <c r="BN29">
         <v>1</v>
       </c>
       <c r="BO29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BQ29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BR29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS29">
-        <v>877</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6098,7 +6101,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02334261797790236</v>
+        <v>0.02536973976061343</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6116,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K30">
-        <v>0.02704381834940088</v>
+        <v>0.02015011168979417</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6140,13 +6143,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>732</v>
+        <v>549</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T30">
-        <v>0.02482621183031085</v>
+        <v>0.02681850583414251</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6164,13 +6167,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>102</v>
+        <v>298</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC30">
-        <v>0.02697001163308167</v>
+        <v>0.02081319953058265</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6188,13 +6191,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>877</v>
+        <v>630</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL30">
-        <v>0.02506964497308981</v>
+        <v>0.02710618930400531</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6212,13 +6215,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>102</v>
+        <v>298</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AU30">
-        <v>0.02714339274449012</v>
+        <v>0.02114125989790525</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6236,13 +6239,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>877</v>
+        <v>630</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BD30">
-        <v>0.02516711091083566</v>
+        <v>0.02722299829639904</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6260,31 +6263,31 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>102</v>
+        <v>298</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="BM30">
-        <v>0.02676770768809692</v>
+        <v>0.02127539813874757</v>
       </c>
       <c r="BN30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP30">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BQ30">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS30">
-        <v>959</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6292,7 +6295,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.02332941655842974</v>
+        <v>0.02519088584689978</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6310,85 +6313,85 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>265</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.01918168305040271</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>0.5</v>
+      </c>
+      <c r="O31">
+        <v>0.5</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>606</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31">
+        <v>0.02629962008794752</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>448</v>
+      </c>
+      <c r="AB31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31">
-        <v>0.0258157088408938</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>877</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T31">
-        <v>0.02475325880837173</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>113</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AC31">
-        <v>0.02695417368871301</v>
+        <v>0.02041946640680753</v>
       </c>
       <c r="AD31">
         <v>2</v>
       </c>
       <c r="AE31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF31">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>959</v>
+        <v>731</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL31">
-        <v>0.02499664236659083</v>
+        <v>0.02656839772784428</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6406,37 +6409,37 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>113</v>
+        <v>370</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AU31">
-        <v>0.0268213261817152</v>
+        <v>0.02050989195525287</v>
       </c>
       <c r="AV31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX31">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AY31">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31">
-        <v>959</v>
+        <v>663</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BD31">
-        <v>0.02509408845163475</v>
+        <v>0.02668288920922882</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6454,19 +6457,19 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>113</v>
+        <v>370</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="BM31">
-        <v>0.02672606743110676</v>
+        <v>0.0206400242576809</v>
       </c>
       <c r="BN31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BO31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BP31">
         <v>0</v>
@@ -6478,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>1092</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6486,7 +6489,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02314459668581306</v>
+        <v>0.02496387895641706</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6504,37 +6507,37 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.02440126547592356</v>
+        <v>0.01877392362329052</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1044</v>
+        <v>630</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T32">
-        <v>0.02474662671546818</v>
+        <v>0.02628642194875859</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6552,43 +6555,43 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>114</v>
+        <v>370</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="AC32">
-        <v>0.0254923239878308</v>
+        <v>0.02019162886586842</v>
       </c>
       <c r="AD32">
         <v>1</v>
       </c>
       <c r="AE32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>1044</v>
+        <v>663</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL32">
-        <v>0.02499000576600002</v>
+        <v>0.02632633147679593</v>
       </c>
       <c r="AM32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO32">
         <v>1</v>
@@ -6600,43 +6603,43 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>114</v>
+        <v>448</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AU32">
-        <v>0.0256562055435945</v>
+        <v>0.02008456526334886</v>
       </c>
       <c r="AV32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW32">
         <v>2</v>
       </c>
       <c r="AX32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AZ32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32">
-        <v>1044</v>
+        <v>731</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BD32">
-        <v>0.02508745004625285</v>
+        <v>0.02633717718307969</v>
       </c>
       <c r="BE32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG32">
         <v>1</v>
@@ -6648,31 +6651,31 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>114</v>
+        <v>448</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="BM32">
-        <v>0.02572234966891869</v>
+        <v>0.01994762994682079</v>
       </c>
       <c r="BN32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO32">
         <v>2</v>
       </c>
       <c r="BP32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BQ32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BR32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS32">
-        <v>1044</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6680,7 +6683,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.02313139526634044</v>
+        <v>0.02446859119536388</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6698,37 +6701,37 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.009723239419076796</v>
+        <v>0.01862755111915574</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="O33">
-        <v>0.08999999999999997</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>2777</v>
+        <v>959</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T33">
-        <v>0.02391761510252367</v>
+        <v>0.02570999773959267</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6746,37 +6749,37 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>239</v>
+        <v>448</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="AC33">
-        <v>0.01015799650747302</v>
+        <v>0.01928752608082954</v>
       </c>
       <c r="AD33">
         <v>1</v>
       </c>
       <c r="AE33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AF33">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>2777</v>
+        <v>711</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL33">
-        <v>0.02416043069214802</v>
+        <v>0.02598579018700317</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6794,37 +6797,37 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>239</v>
+        <v>448</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="AU33">
-        <v>0.01022329884208486</v>
+        <v>0.01959153858412214</v>
       </c>
       <c r="AV33">
         <v>1</v>
       </c>
       <c r="AW33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AX33">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="AY33">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AZ33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33">
-        <v>2777</v>
+        <v>711</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BD33">
-        <v>0.02425764937351526</v>
+        <v>0.02609777103146108</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6842,31 +6845,31 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>239</v>
+        <v>448</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="BM33">
-        <v>0.01024965547376559</v>
+        <v>0.01971584406703847</v>
       </c>
       <c r="BN33">
         <v>1</v>
       </c>
       <c r="BO33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BP33">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="BQ33">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BR33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS33">
-        <v>2777</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6874,7 +6877,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02305878745924103</v>
+        <v>0.02393202945422292</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6892,175 +6895,175 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.01821325441101125</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>3925</v>
+        <v>663</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T34">
-        <v>0.02374518068703121</v>
+        <v>0.0245423692133335</v>
       </c>
       <c r="U34">
         <v>1</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>265</v>
+        <v>606</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>0.01616083728257006</v>
       </c>
       <c r="AD34">
         <v>1</v>
       </c>
       <c r="AE34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AH34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>3925</v>
+        <v>877</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AL34">
-        <v>0.02398787907678681</v>
+        <v>0.02480563645042757</v>
       </c>
       <c r="AM34">
         <v>1</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR34">
-        <v>265</v>
+        <v>606</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AU34">
-        <v>0</v>
+        <v>0.01641556650896172</v>
       </c>
       <c r="AV34">
         <v>1</v>
       </c>
       <c r="AW34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX34">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AY34">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AZ34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34">
-        <v>3925</v>
+        <v>877</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BD34">
-        <v>0.02408505083358584</v>
+        <v>0.02491253164572643</v>
       </c>
       <c r="BE34">
         <v>1</v>
       </c>
       <c r="BF34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BH34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BI34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ34">
-        <v>265</v>
+        <v>606</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="BM34">
-        <v>0</v>
+        <v>0.01651972090773341</v>
       </c>
       <c r="BN34">
         <v>1</v>
       </c>
       <c r="BO34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP34">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="BQ34">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="BR34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS34">
-        <v>3925</v>
+        <v>877</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7068,97 +7071,193 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.02305218674950472</v>
+        <v>0.02284514797857842</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>114</v>
+        <v>606</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35">
+        <v>0.01739773555678687</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>711</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T35">
-        <v>0.02359469845855231</v>
+        <v>0.02325649982365569</v>
       </c>
       <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>780</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC35">
+        <v>0.01612497817787283</v>
+      </c>
+      <c r="AD35">
+        <v>2</v>
+      </c>
+      <c r="AE35">
         <v>3</v>
       </c>
-      <c r="V35">
+      <c r="AF35">
+        <v>0.33</v>
+      </c>
+      <c r="AG35">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>959</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL35">
+        <v>0.02350597347470508</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>780</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU35">
+        <v>0.01572238675047791</v>
+      </c>
+      <c r="AV35">
+        <v>2</v>
+      </c>
+      <c r="AW35">
         <v>3</v>
       </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>447</v>
-      </c>
-      <c r="AK35" s="1" t="s">
+      <c r="AX35">
+        <v>0.33</v>
+      </c>
+      <c r="AY35">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="AZ35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA35">
+        <v>959</v>
+      </c>
+      <c r="BC35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD35">
+        <v>0.02360726801839839</v>
+      </c>
+      <c r="BE35">
+        <v>1</v>
+      </c>
+      <c r="BF35">
+        <v>1</v>
+      </c>
+      <c r="BG35">
+        <v>1</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>780</v>
+      </c>
+      <c r="BL35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AL35">
-        <v>0.02376887125728989</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>1</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>298</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD35">
-        <v>0.02386598345598311</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>1</v>
-      </c>
-      <c r="BH35">
-        <v>0</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>298</v>
+      <c r="BM35">
+        <v>0.01555777404126925</v>
+      </c>
+      <c r="BN35">
+        <v>2</v>
+      </c>
+      <c r="BO35">
+        <v>3</v>
+      </c>
+      <c r="BP35">
+        <v>0.33</v>
+      </c>
+      <c r="BQ35">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="BR35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS35">
+        <v>959</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -7166,13 +7265,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.022227098032466</v>
+        <v>0.02264664579911452</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -7184,13 +7283,37 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>239</v>
+        <v>954</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36">
+        <v>0.01457739951926088</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>877</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="T36">
-        <v>0.02358372236504553</v>
+        <v>0.02256025278233272</v>
       </c>
       <c r="U36">
         <v>2</v>
@@ -7208,13 +7331,37 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>369</v>
+        <v>954</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC36">
+        <v>0.01507200344000686</v>
+      </c>
+      <c r="AD36">
+        <v>3</v>
+      </c>
+      <c r="AE36">
+        <v>3</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1095</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="AL36">
-        <v>0.02359975170094143</v>
+        <v>0.02254685178877535</v>
       </c>
       <c r="AM36">
         <v>2</v>
@@ -7232,13 +7379,37 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>369</v>
+        <v>954</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU36">
+        <v>0.01399605944947204</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>1095</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="BD36">
-        <v>0.02360616953803913</v>
+        <v>0.02254141054268897</v>
       </c>
       <c r="BE36">
         <v>2</v>
@@ -7256,7 +7427,31 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>369</v>
+        <v>954</v>
+      </c>
+      <c r="BL36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM36">
+        <v>0.01355612446033237</v>
+      </c>
+      <c r="BN36">
+        <v>3</v>
+      </c>
+      <c r="BO36">
+        <v>3</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>1095</v>
       </c>
     </row>
     <row r="37" spans="1:71">
@@ -7264,7 +7459,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.02205547957932194</v>
+        <v>0.0216482025560332</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7282,79 +7477,175 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>265</v>
+        <v>780</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <v>0.01078863484234342</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1100</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="T37">
-        <v>0.02352632162121385</v>
+        <v>0.02193368016415954</v>
       </c>
       <c r="U37">
         <v>1</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="Y37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>298</v>
+        <v>959</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC37">
+        <v>0.01196052642707691</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1100</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AL37">
-        <v>0.02338417594045726</v>
+        <v>0.02216896386174918</v>
       </c>
       <c r="AM37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN37">
         <v>3</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="AQ37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37">
-        <v>447</v>
+        <v>959</v>
+      </c>
+      <c r="AT37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU37">
+        <v>0.01214904980558356</v>
+      </c>
+      <c r="AV37">
+        <v>1</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>1100</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="BD37">
-        <v>0.02329988678242184</v>
+        <v>0.02226449681557243</v>
       </c>
       <c r="BE37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF37">
         <v>3</v>
       </c>
       <c r="BG37">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="BH37">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="BI37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ37">
-        <v>447</v>
+        <v>959</v>
+      </c>
+      <c r="BL37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM37">
+        <v>0.01222613377204046</v>
+      </c>
+      <c r="BN37">
+        <v>1</v>
+      </c>
+      <c r="BO37">
+        <v>1</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>1100</v>
       </c>
     </row>
     <row r="38" spans="1:71">
@@ -7362,37 +7653,61 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.02183765615802372</v>
+        <v>0.02041686215008152</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>298</v>
+        <v>959</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1735</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T38">
-        <v>0.02147700491401502</v>
+        <v>0.01320076073712692</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W38">
         <v>1</v>
@@ -7404,19 +7719,43 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>607</v>
+        <v>2779</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1735</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AL38">
-        <v>0.02171816167472776</v>
+        <v>0.01129911822713186</v>
       </c>
       <c r="AM38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AO38">
         <v>1</v>
@@ -7428,19 +7767,43 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>607</v>
+        <v>2779</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>1</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>1735</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="BD38">
-        <v>0.02181471619297577</v>
+        <v>0.01052698854727402</v>
       </c>
       <c r="BE38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BF38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BG38">
         <v>1</v>
@@ -7452,7 +7815,31 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>607</v>
+        <v>2779</v>
+      </c>
+      <c r="BL38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>1</v>
+      </c>
+      <c r="BO38">
+        <v>1</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>1735</v>
       </c>
     </row>
     <row r="39" spans="1:71">
@@ -7460,13 +7847,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02076583283043059</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -7478,19 +7865,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>779</v>
+        <v>3927</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="T39">
-        <v>0.02086456427458752</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W39">
         <v>1</v>
@@ -7502,19 +7889,19 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>779</v>
+        <v>3927</v>
       </c>
       <c r="AK39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AL39">
-        <v>0.0208787454587069</v>
+        <v>0</v>
       </c>
       <c r="AM39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO39">
         <v>1</v>
@@ -7526,19 +7913,19 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>779</v>
+        <v>3927</v>
       </c>
       <c r="BC39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BD39">
-        <v>0.02088442333145981</v>
+        <v>0</v>
       </c>
       <c r="BE39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG39">
         <v>1</v>
@@ -7550,497 +7937,7 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0.019798036849504</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>607</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T40">
-        <v>0.01916903658357749</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>955</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL40">
-        <v>0.01940862466912383</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>1</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>955</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD40">
-        <v>0.0195045511200743</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>1</v>
-      </c>
-      <c r="BH40">
-        <v>0</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41">
-        <v>0.01750098986126819</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>955</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T41">
-        <v>0.01914250821196327</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>3</v>
-      </c>
-      <c r="W41">
-        <v>0.33</v>
-      </c>
-      <c r="X41">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>959</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL41">
-        <v>0.01938207826676056</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>3</v>
-      </c>
-      <c r="AO41">
-        <v>0.33</v>
-      </c>
-      <c r="AP41">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR41">
-        <v>959</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD41">
-        <v>0.0194779974985467</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>3</v>
-      </c>
-      <c r="BG41">
-        <v>0.33</v>
-      </c>
-      <c r="BH41">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ41">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42">
-        <v>0.01747458702232296</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>0.33</v>
-      </c>
-      <c r="F42">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>959</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T42">
-        <v>0.018578780315161</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>0.5</v>
-      </c>
-      <c r="X42">
-        <v>0.5</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z42">
-        <v>1044</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL42">
-        <v>0.01881796721654121</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>2</v>
-      </c>
-      <c r="AO42">
-        <v>0.5</v>
-      </c>
-      <c r="AP42">
-        <v>0.5</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR42">
-        <v>1044</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD42">
-        <v>0.01891373304108513</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>2</v>
-      </c>
-      <c r="BG42">
-        <v>0.5</v>
-      </c>
-      <c r="BH42">
-        <v>0.5</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ42">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43">
-        <v>0.01691352669473662</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>0.5</v>
-      </c>
-      <c r="F43">
-        <v>0.5</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1044</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T43">
-        <v>0.01183987737315568</v>
-      </c>
-      <c r="U43">
-        <v>10</v>
-      </c>
-      <c r="V43">
-        <v>11</v>
-      </c>
-      <c r="W43">
-        <v>0.91</v>
-      </c>
-      <c r="X43">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z43">
-        <v>2777</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL43">
-        <v>0.01003545016305245</v>
-      </c>
-      <c r="AM43">
-        <v>10</v>
-      </c>
-      <c r="AN43">
-        <v>11</v>
-      </c>
-      <c r="AO43">
-        <v>0.91</v>
-      </c>
-      <c r="AP43">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR43">
-        <v>2777</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BD43">
-        <v>0.009312992291789852</v>
-      </c>
-      <c r="BE43">
-        <v>10</v>
-      </c>
-      <c r="BF43">
-        <v>11</v>
-      </c>
-      <c r="BG43">
-        <v>0.91</v>
-      </c>
-      <c r="BH43">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ43">
-        <v>2777</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>0.67</v>
-      </c>
-      <c r="F44">
-        <v>0.33</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>3925</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
-      <c r="V44">
-        <v>3</v>
-      </c>
-      <c r="W44">
-        <v>0.67</v>
-      </c>
-      <c r="X44">
-        <v>0.33</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z44">
-        <v>3925</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>2</v>
-      </c>
-      <c r="AN44">
-        <v>3</v>
-      </c>
-      <c r="AO44">
-        <v>0.67</v>
-      </c>
-      <c r="AP44">
-        <v>0.33</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR44">
-        <v>3925</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD44">
-        <v>0</v>
-      </c>
-      <c r="BE44">
-        <v>2</v>
-      </c>
-      <c r="BF44">
-        <v>3</v>
-      </c>
-      <c r="BG44">
-        <v>0.67</v>
-      </c>
-      <c r="BH44">
-        <v>0.33</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ44">
-        <v>3925</v>
+        <v>3927</v>
       </c>
     </row>
   </sheetData>
